--- a/docs/excel/TDungeons.xlsx
+++ b/docs/excel/TDungeons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="29310" yWindow="165" windowWidth="26430" windowHeight="12105" tabRatio="204"/>
+    <workbookView xWindow="270" yWindow="210" windowWidth="26775" windowHeight="12120" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TDungeons" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="76">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -147,6 +147,14 @@
     <t>推荐标记</t>
   </si>
   <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonlLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[]string</t>
   </si>
   <si>
@@ -445,6 +453,58 @@
       </rPr>
       <t>100</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0;2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-300</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorelimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大奖全局限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大奖个人限制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,191 +577,7 @@
   </si>
   <si>
     <r>
-      <t>20-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;30-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;40-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;50-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;60-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;70-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;80-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;90-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4026-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Getnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt32</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中奖次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-70;3-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-70;5-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2-1;2-1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -710,7 +586,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>钻石</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -718,7 +594,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -727,7 +603,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>免费</t>
+      <t>否</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -735,26 +626,323 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+      <t>0;2-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>普通</t>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;3-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;4-10;5-10;6-10;7-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;8-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;9-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;10-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;30-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;40-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;50-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;60-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;70-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;80-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;90-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DiamondChip</t>
+    <r>
+      <t>1-5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0;2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-300</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>20-</t>
+    <t>4026-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Getnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt32</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中奖次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-70;3-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-70;5-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-5-</t>
     </r>
     <r>
       <rPr>
@@ -763,7 +951,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>45</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -771,7 +959,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>;30-</t>
+      <t>0;2-</t>
     </r>
     <r>
       <rPr>
@@ -780,7 +968,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>20</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -788,280 +976,17 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>;40-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;50-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;60-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;70-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;80-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;90-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
+      <t>-300</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0;2-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;3-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;4-10;5-10;6-10;7-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;8-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;9-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;10-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石碎片</t>
+    <t>1-2-1;2-1-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-100</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>000;2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>-40000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorelimit</t>
-  </si>
-  <si>
-    <t>PersonlLimit</t>
-  </si>
-  <si>
-    <t>大奖全局限制</t>
-  </si>
-  <si>
-    <t>大奖个人限制</t>
   </si>
 </sst>
 </file>
@@ -1500,18 +1425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T86"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D89" sqref="D89"/>
+      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.796875" style="1" customWidth="1"/>
     <col min="3" max="6" width="21.69921875" customWidth="1"/>
     <col min="10" max="10" width="13.09765625" customWidth="1"/>
@@ -1519,11 +1444,12 @@
     <col min="12" max="12" width="61.8984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.3984375" customWidth="1"/>
-    <col min="15" max="16" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="59.69921875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.3984375" customWidth="1"/>
     <col min="19" max="19" width="20.5" customWidth="1"/>
-    <col min="20" max="20" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -1540,10 +1466,10 @@
         <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1561,32 +1487,30 @@
         <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1605,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -1623,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>37</v>
@@ -1631,23 +1555,20 @@
       <c r="N2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>8</v>
+      <c r="O2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1672,9 +1593,6 @@
       <c r="S3" t="s">
         <v>35</v>
       </c>
-      <c r="T3" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1684,16 +1602,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
@@ -1711,32 +1629,30 @@
         <v>7</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1758,38 +1674,39 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I5">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N5" s="7"/>
-      <c r="O5" s="1">
-        <v>61113600</v>
-      </c>
-      <c r="P5" s="1">
-        <v>30556800</v>
+      <c r="O5">
+        <v>509280</v>
+      </c>
+      <c r="P5">
+        <f>O5/2</f>
+        <v>254640</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -1812,38 +1729,39 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I6">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>6</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7"/>
-      <c r="O6" s="1">
-        <v>25185600</v>
-      </c>
-      <c r="P6" s="1">
-        <v>12592800</v>
+      <c r="O6">
+        <v>209880</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P69" si="0">O6/2</f>
+        <v>104940</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -1866,38 +1784,39 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I7">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="1">
-        <v>22312800</v>
-      </c>
-      <c r="P7" s="1">
-        <v>11156400</v>
+      <c r="O7">
+        <v>185940</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>92970</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -1920,38 +1839,39 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I8">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="1">
-        <v>19432800</v>
-      </c>
-      <c r="P8" s="1">
-        <v>9716400</v>
+      <c r="O8">
+        <v>161940</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>80970</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -1974,38 +1894,39 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I9">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="1">
-        <v>16560000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>8280000</v>
+      <c r="O9">
+        <v>138000</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>69000</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2028,38 +1949,39 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I10">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N10" s="7"/>
-      <c r="O10" s="1">
-        <v>14385600</v>
-      </c>
-      <c r="P10" s="1">
-        <v>7192800</v>
+      <c r="O10">
+        <v>119880</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>59940</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2082,38 +2004,39 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I11">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="1">
-        <v>14112000</v>
-      </c>
-      <c r="P11" s="1">
-        <v>7056000</v>
+      <c r="O11">
+        <v>117600</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>58800</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2136,10 +2059,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I12">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -2148,26 +2071,27 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="1">
-        <v>10792800</v>
-      </c>
-      <c r="P12" s="1">
-        <v>5396400</v>
+      <c r="O12">
+        <v>89940</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>44970</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2190,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I13">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2202,26 +2126,27 @@
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="1">
-        <v>10072800</v>
-      </c>
-      <c r="P13" s="1">
-        <v>5036400</v>
+      <c r="O13">
+        <v>83940</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>41970</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2244,10 +2169,10 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I14">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2256,26 +2181,27 @@
         <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N14" s="7"/>
-      <c r="O14" s="1">
-        <v>10072800</v>
-      </c>
-      <c r="P14" s="1">
-        <v>5036400</v>
+      <c r="O14">
+        <v>83940</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>41970</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2298,10 +2224,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I15">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2310,26 +2236,27 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N15" s="7"/>
-      <c r="O15" s="1">
-        <v>9352800</v>
-      </c>
-      <c r="P15" s="1">
-        <v>4676400</v>
+      <c r="O15">
+        <v>77940</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>38970</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2352,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I16">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2364,26 +2291,27 @@
         <v>1</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N16" s="7"/>
-      <c r="O16" s="1">
-        <v>8632800</v>
-      </c>
-      <c r="P16" s="1">
-        <v>4316400</v>
+      <c r="O16">
+        <v>71940</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>35970</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2406,10 +2334,10 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I17">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2418,26 +2346,27 @@
         <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N17" s="7"/>
-      <c r="O17" s="1">
-        <v>8632800</v>
-      </c>
-      <c r="P17" s="1">
-        <v>4316400</v>
+      <c r="O17">
+        <v>71940</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>35970</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2460,10 +2389,10 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I18">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2472,26 +2401,27 @@
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N18" s="7"/>
-      <c r="O18" s="1">
-        <v>7200000</v>
-      </c>
-      <c r="P18" s="1">
-        <v>3600000</v>
+      <c r="O18">
+        <v>60000</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2514,10 +2444,10 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I19">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -2526,26 +2456,27 @@
         <v>1</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N19" s="7"/>
-      <c r="O19" s="1">
-        <v>6465600</v>
-      </c>
-      <c r="P19" s="1">
-        <v>3232800</v>
+      <c r="O19">
+        <v>53880</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>26940</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2568,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I20">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -2580,26 +2511,27 @@
         <v>1</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="1">
-        <v>5529600</v>
-      </c>
-      <c r="P20" s="1">
-        <v>2764800</v>
+      <c r="O20">
+        <v>46080</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>23040</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2622,10 +2554,10 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I21">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -2634,26 +2566,27 @@
         <v>1</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N21" s="7"/>
-      <c r="O21" s="1">
-        <v>4737600</v>
-      </c>
-      <c r="P21" s="1">
-        <v>2368800</v>
+      <c r="O21">
+        <v>39480</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>19740</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2676,10 +2609,10 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I22">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -2688,26 +2621,27 @@
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N22" s="7"/>
-      <c r="O22" s="1">
-        <v>3808800</v>
-      </c>
-      <c r="P22" s="1">
-        <v>1904400</v>
+      <c r="O22">
+        <v>31740</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>15870</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2730,10 +2664,10 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I23">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -2742,26 +2676,27 @@
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="1">
-        <v>3600000</v>
-      </c>
-      <c r="P23" s="1">
-        <v>1800000</v>
+      <c r="O23">
+        <v>30000</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2784,10 +2719,10 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I24">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J24">
         <v>5</v>
@@ -2796,26 +2731,27 @@
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N24" s="7"/>
-      <c r="O24" s="1">
-        <v>2779200</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1389600</v>
+      <c r="O24">
+        <v>23160</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>11580</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2838,10 +2774,10 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I25">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J25">
         <v>5</v>
@@ -2850,26 +2786,27 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="1">
-        <v>2520000</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1260000</v>
+      <c r="O25">
+        <v>21000</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>10500</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2892,10 +2829,10 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I26">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2904,26 +2841,27 @@
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N26" s="7"/>
-      <c r="O26" s="1">
-        <v>2512800</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1256400</v>
+      <c r="O26">
+        <v>20940</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>10470</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2946,10 +2884,10 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I27">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -2958,26 +2896,27 @@
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="1">
-        <v>2505600</v>
-      </c>
-      <c r="P27" s="1">
-        <v>1252800</v>
+      <c r="O27">
+        <v>20880</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>10440</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3000,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I28">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -3012,26 +2951,27 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N28" s="7"/>
-      <c r="O28" s="1">
-        <v>2268000</v>
-      </c>
-      <c r="P28" s="1">
-        <v>1134000</v>
+      <c r="O28">
+        <v>18900</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>9450</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3054,10 +2994,10 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I29">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -3066,26 +3006,27 @@
         <v>1</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N29" s="7"/>
-      <c r="O29" s="1">
-        <v>2224800</v>
-      </c>
-      <c r="P29" s="1">
-        <v>1112400</v>
+      <c r="O29">
+        <v>18540</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>9270</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3108,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I30">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J30">
         <v>5</v>
@@ -3120,26 +3061,27 @@
         <v>1</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N30" s="7"/>
-      <c r="O30" s="1">
-        <v>2160000</v>
-      </c>
-      <c r="P30" s="1">
-        <v>1080000</v>
+      <c r="O30">
+        <v>18000</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>9000</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3162,10 +3104,10 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I31">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J31">
         <v>5</v>
@@ -3174,26 +3116,27 @@
         <v>1</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="1">
-        <v>2152800</v>
-      </c>
-      <c r="P31" s="1">
-        <v>1076400</v>
+      <c r="O31">
+        <v>17940</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>8970</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3216,10 +3159,10 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I32">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3228,26 +3171,27 @@
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="1">
-        <v>2145600</v>
-      </c>
-      <c r="P32" s="1">
-        <v>1072800</v>
+      <c r="O32">
+        <v>17880</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>8940</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3270,10 +3214,10 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I33">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J33">
         <v>5</v>
@@ -3282,26 +3226,27 @@
         <v>1</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N33" s="7"/>
-      <c r="O33" s="1">
-        <v>2145600</v>
-      </c>
-      <c r="P33" s="1">
-        <v>1072800</v>
+      <c r="O33">
+        <v>17880</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>8940</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3324,10 +3269,10 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I34">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3336,26 +3281,27 @@
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="O34" s="1">
-        <v>2080800</v>
-      </c>
-      <c r="P34" s="1">
-        <v>1040400</v>
+      <c r="O34">
+        <v>17340</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>8670</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3378,10 +3324,10 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I35">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J35">
         <v>5</v>
@@ -3390,26 +3336,27 @@
         <v>1</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N35" s="7"/>
-      <c r="O35" s="1">
-        <v>2037600</v>
-      </c>
-      <c r="P35" s="1">
-        <v>1018800</v>
+      <c r="O35">
+        <v>16980</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>8490</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3432,10 +3379,10 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I36">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -3444,26 +3391,27 @@
         <v>1</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N36" s="7"/>
-      <c r="O36" s="1">
-        <v>1785600</v>
-      </c>
-      <c r="P36" s="1">
-        <v>892800</v>
+      <c r="O36">
+        <v>14880</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>7440</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3486,10 +3434,10 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I37">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -3498,26 +3446,27 @@
         <v>1</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N37" s="7"/>
-      <c r="O37" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="P37" s="1">
-        <v>720000</v>
+      <c r="O37">
+        <v>12000</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>6000</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3540,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I38">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J38">
         <v>4</v>
@@ -3552,26 +3501,27 @@
         <v>1</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N38" s="7"/>
-      <c r="O38" s="1">
-        <v>1432800</v>
-      </c>
-      <c r="P38" s="1">
-        <v>716400</v>
+      <c r="O38">
+        <v>11940</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>5970</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3594,10 +3544,10 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I39">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J39">
         <v>4</v>
@@ -3606,26 +3556,27 @@
         <v>1</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N39" s="7"/>
-      <c r="O39" s="1">
-        <v>1432800</v>
-      </c>
-      <c r="P39" s="1">
-        <v>716400</v>
+      <c r="O39">
+        <v>11940</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>5970</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3648,10 +3599,10 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I40">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -3660,26 +3611,27 @@
         <v>1</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N40" s="7"/>
-      <c r="O40" s="1">
-        <v>1432800</v>
-      </c>
-      <c r="P40" s="1">
-        <v>716400</v>
+      <c r="O40">
+        <v>11940</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>5970</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3702,10 +3654,10 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I41">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -3714,26 +3666,27 @@
         <v>1</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N41" s="7"/>
-      <c r="O41" s="1">
-        <v>1432800</v>
-      </c>
-      <c r="P41" s="1">
-        <v>716400</v>
+      <c r="O41">
+        <v>11940</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>5970</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3756,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I42">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J42">
         <v>4</v>
@@ -3768,26 +3721,27 @@
         <v>1</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N42" s="7"/>
-      <c r="O42" s="1">
-        <v>1425600</v>
-      </c>
-      <c r="P42" s="1">
-        <v>712800</v>
+      <c r="O42">
+        <v>11880</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>5940</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3810,10 +3764,10 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I43">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J43">
         <v>4</v>
@@ -3822,26 +3776,27 @@
         <v>1</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N43" s="7"/>
-      <c r="O43" s="1">
-        <v>1360800</v>
-      </c>
-      <c r="P43" s="1">
-        <v>680400</v>
+      <c r="O43">
+        <v>11340</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>5670</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3864,10 +3819,10 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I44">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J44">
         <v>4</v>
@@ -3876,26 +3831,27 @@
         <v>1</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N44" s="7"/>
-      <c r="O44" s="1">
-        <v>1360800</v>
-      </c>
-      <c r="P44" s="1">
-        <v>680400</v>
+      <c r="O44">
+        <v>11340</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>5670</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3918,10 +3874,10 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I45">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J45">
         <v>4</v>
@@ -3930,26 +3886,27 @@
         <v>1</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N45" s="7"/>
-      <c r="O45" s="1">
-        <v>1288800</v>
-      </c>
-      <c r="P45" s="1">
-        <v>644400</v>
+      <c r="O45">
+        <v>10740</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>5370</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3972,10 +3929,10 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I46">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -3984,26 +3941,27 @@
         <v>1</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N46" s="7"/>
-      <c r="O46" s="1">
-        <v>1281600</v>
-      </c>
-      <c r="P46" s="1">
-        <v>640800</v>
+      <c r="O46">
+        <v>10680</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>5340</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4026,10 +3984,10 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I47">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J47">
         <v>4</v>
@@ -4038,26 +3996,27 @@
         <v>1</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N47" s="7"/>
-      <c r="O47" s="1">
-        <v>1281600</v>
-      </c>
-      <c r="P47" s="1">
-        <v>640800</v>
+      <c r="O47">
+        <v>10680</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>5340</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4080,10 +4039,10 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I48">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -4092,26 +4051,27 @@
         <v>1</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N48" s="7"/>
-      <c r="O48" s="1">
-        <v>1137600</v>
-      </c>
-      <c r="P48" s="1">
-        <v>568800</v>
+      <c r="O48">
+        <v>9480</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>4740</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4137,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I49">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -4149,26 +4109,27 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N49" s="7"/>
-      <c r="O49" s="1">
-        <v>1072800</v>
-      </c>
-      <c r="P49" s="1">
-        <v>536400</v>
+      <c r="O49">
+        <v>8940</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>4470</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4191,10 +4152,10 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I50">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J50">
         <v>4</v>
@@ -4203,26 +4164,27 @@
         <v>1</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N50" s="7"/>
-      <c r="O50" s="1">
-        <v>1000800</v>
-      </c>
-      <c r="P50" s="1">
-        <v>500400</v>
+      <c r="O50">
+        <v>8340</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>4170</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4245,10 +4207,10 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I51">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J51">
         <v>4</v>
@@ -4257,26 +4219,27 @@
         <v>1</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N51" s="7"/>
-      <c r="O51" s="1">
-        <v>928800</v>
-      </c>
-      <c r="P51" s="1">
-        <v>464400</v>
+      <c r="O51">
+        <v>7740</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>3870</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4299,10 +4262,10 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I52">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J52">
         <v>4</v>
@@ -4311,26 +4274,27 @@
         <v>1</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N52" s="7"/>
-      <c r="O52" s="1">
-        <v>928800</v>
-      </c>
-      <c r="P52" s="1">
-        <v>464400</v>
+      <c r="O52">
+        <v>7740</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>3870</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4353,10 +4317,10 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I53">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J53">
         <v>4</v>
@@ -4365,26 +4329,27 @@
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N53" s="7"/>
-      <c r="O53" s="1">
-        <v>928800</v>
-      </c>
-      <c r="P53" s="1">
-        <v>464400</v>
+      <c r="O53">
+        <v>7740</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>3870</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4407,10 +4372,10 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I54">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J54">
         <v>4</v>
@@ -4419,26 +4384,27 @@
         <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N54" s="7"/>
-      <c r="O54" s="1">
-        <v>928800</v>
-      </c>
-      <c r="P54" s="1">
-        <v>464400</v>
+      <c r="O54">
+        <v>7740</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>3870</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4464,10 +4430,10 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I55">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J55">
         <v>4</v>
@@ -4476,26 +4442,27 @@
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N55" s="7"/>
-      <c r="O55" s="1">
-        <v>856800</v>
-      </c>
-      <c r="P55" s="1">
-        <v>428400</v>
+      <c r="O55">
+        <v>7140</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>3570</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4518,10 +4485,10 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I56">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J56">
         <v>4</v>
@@ -4530,26 +4497,27 @@
         <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N56" s="7"/>
-      <c r="O56" s="1">
-        <v>720000</v>
-      </c>
-      <c r="P56" s="1">
-        <v>360000</v>
+      <c r="O56">
+        <v>6000</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4572,10 +4540,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I57">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="J57">
         <v>4</v>
@@ -4584,26 +4552,27 @@
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N57" s="7"/>
-      <c r="O57" s="1">
-        <v>720000</v>
-      </c>
-      <c r="P57" s="1">
-        <v>360000</v>
+      <c r="O57">
+        <v>6000</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4626,10 +4595,10 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I58">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J58">
         <v>4</v>
@@ -4638,26 +4607,27 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N58" s="7"/>
-      <c r="O58" s="1">
-        <v>712800</v>
-      </c>
-      <c r="P58" s="1">
-        <v>356400</v>
+      <c r="O58">
+        <v>5940</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>2970</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4680,10 +4650,10 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I59">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -4692,26 +4662,27 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N59" s="7"/>
-      <c r="O59" s="1">
-        <v>712800</v>
-      </c>
-      <c r="P59" s="1">
-        <v>356400</v>
+      <c r="O59">
+        <v>5940</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>2970</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4734,10 +4705,10 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I60">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J60">
         <v>4</v>
@@ -4746,26 +4717,27 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N60" s="7"/>
-      <c r="O60" s="1">
-        <v>640800</v>
-      </c>
-      <c r="P60" s="1">
-        <v>320400</v>
+      <c r="O60">
+        <v>5340</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>2670</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4788,10 +4760,10 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I61">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J61">
         <v>4</v>
@@ -4800,26 +4772,27 @@
         <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N61" s="7"/>
-      <c r="O61" s="1">
-        <v>633600</v>
-      </c>
-      <c r="P61" s="1">
-        <v>316800</v>
+      <c r="O61">
+        <v>5280</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>2640</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4842,10 +4815,10 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I62">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J62">
         <v>4</v>
@@ -4854,26 +4827,27 @@
         <v>1</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N62" s="7"/>
-      <c r="O62" s="1">
-        <v>576000</v>
-      </c>
-      <c r="P62" s="1">
-        <v>288000</v>
+      <c r="O62">
+        <v>4800</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>2400</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4896,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I63">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J63">
         <v>4</v>
@@ -4908,26 +4882,27 @@
         <v>1</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N63" s="7"/>
-      <c r="O63" s="1">
-        <v>568800</v>
-      </c>
-      <c r="P63" s="1">
-        <v>284400</v>
+      <c r="O63">
+        <v>4740</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>2370</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4950,10 +4925,10 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I64">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -4962,26 +4937,27 @@
         <v>1</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N64" s="7"/>
-      <c r="O64" s="1">
-        <v>568800</v>
-      </c>
-      <c r="P64" s="1">
-        <v>284400</v>
+      <c r="O64">
+        <v>4740</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>2370</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5004,10 +4980,10 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I65">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J65">
         <v>4</v>
@@ -5016,26 +4992,27 @@
         <v>1</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N65" s="7"/>
-      <c r="O65" s="1">
-        <v>561600</v>
-      </c>
-      <c r="P65" s="1">
-        <v>280800</v>
+      <c r="O65">
+        <v>4680</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>2340</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5058,10 +5035,10 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I66">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -5070,26 +5047,27 @@
         <v>1</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N66" s="7"/>
-      <c r="O66" s="1">
-        <v>561600</v>
-      </c>
-      <c r="P66" s="1">
-        <v>280800</v>
+      <c r="O66">
+        <v>4680</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>2340</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5115,10 +5093,10 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I67">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -5127,26 +5105,27 @@
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N67" s="7"/>
-      <c r="O67" s="1">
-        <v>489600</v>
-      </c>
-      <c r="P67" s="1">
-        <v>244800</v>
+      <c r="O67">
+        <v>4080</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="0"/>
+        <v>2040</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5169,10 +5148,10 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I68">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J68">
         <v>4</v>
@@ -5181,26 +5160,27 @@
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N68" s="9"/>
-      <c r="O68" s="1">
-        <v>489600</v>
-      </c>
-      <c r="P68" s="1">
-        <v>244800</v>
+      <c r="O68">
+        <v>4080</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="0"/>
+        <v>2040</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5223,10 +5203,10 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I69">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -5235,26 +5215,27 @@
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N69" s="9"/>
-      <c r="O69" s="1">
-        <v>424800</v>
-      </c>
-      <c r="P69" s="1">
-        <v>212400</v>
+      <c r="O69">
+        <v>3540</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="0"/>
+        <v>1770</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5277,10 +5258,10 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I70">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J70">
         <v>4</v>
@@ -5289,26 +5270,27 @@
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N70" s="9"/>
-      <c r="O70" s="1">
-        <v>424800</v>
-      </c>
-      <c r="P70" s="1">
-        <v>212400</v>
+      <c r="O70">
+        <v>3540</v>
+      </c>
+      <c r="P70">
+        <f t="shared" ref="P70:P88" si="1">O70/2</f>
+        <v>1770</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5334,10 +5316,10 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I71">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J71">
         <v>4</v>
@@ -5346,26 +5328,27 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N71" s="9"/>
-      <c r="O71" s="1">
-        <v>424800</v>
-      </c>
-      <c r="P71" s="1">
-        <v>212400</v>
+      <c r="O71">
+        <v>3540</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="1"/>
+        <v>1770</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5391,10 +5374,10 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I72">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J72">
         <v>4</v>
@@ -5403,26 +5386,27 @@
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N72" s="9"/>
-      <c r="O72" s="1">
-        <v>417600</v>
-      </c>
-      <c r="P72" s="1">
-        <v>208800</v>
+      <c r="O72">
+        <v>3480</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="1"/>
+        <v>1740</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5445,10 +5429,10 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I73">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -5457,26 +5441,27 @@
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N73" s="9"/>
-      <c r="O73" s="1">
-        <v>360000</v>
-      </c>
-      <c r="P73" s="1">
-        <v>180000</v>
+      <c r="O73">
+        <v>3000</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5502,10 +5487,10 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I74">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J74">
         <v>4</v>
@@ -5514,26 +5499,27 @@
         <v>1</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N74" s="9"/>
-      <c r="O74" s="1">
-        <v>360000</v>
-      </c>
-      <c r="P74" s="1">
-        <v>180000</v>
+      <c r="O74">
+        <v>3000</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5556,10 +5542,10 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I75">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -5568,26 +5554,27 @@
         <v>1</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N75" s="9"/>
-      <c r="O75" s="1">
-        <v>352800</v>
-      </c>
-      <c r="P75" s="1">
-        <v>176400</v>
+      <c r="O75">
+        <v>2940</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="1"/>
+        <v>1470</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5600,9 +5587,6 @@
       <c r="C76">
         <v>4</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
       <c r="E76">
         <v>0</v>
       </c>
@@ -5613,10 +5597,10 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I76">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J76">
         <v>4</v>
@@ -5625,26 +5609,27 @@
         <v>1</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N76" s="9"/>
-      <c r="O76" s="1">
-        <v>288000</v>
-      </c>
-      <c r="P76" s="1">
-        <v>144000</v>
+      <c r="O76">
+        <v>2400</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="1"/>
+        <v>1200</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5667,10 +5652,10 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I77">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J77">
         <v>4</v>
@@ -5679,26 +5664,27 @@
         <v>1</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N77" s="9"/>
-      <c r="O77" s="1">
-        <v>280800</v>
-      </c>
-      <c r="P77" s="1">
-        <v>140400</v>
+      <c r="O77">
+        <v>2340</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="1"/>
+        <v>1170</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5721,10 +5707,10 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I78">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J78">
         <v>4</v>
@@ -5733,26 +5719,27 @@
         <v>1</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N78" s="9"/>
-      <c r="O78" s="1">
-        <v>280800</v>
-      </c>
-      <c r="P78" s="1">
-        <v>140400</v>
+      <c r="O78">
+        <v>2340</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="1"/>
+        <v>1170</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5765,9 +5752,6 @@
       <c r="C79">
         <v>3</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
       <c r="E79">
         <v>0</v>
       </c>
@@ -5778,10 +5762,10 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I79">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J79">
         <v>4</v>
@@ -5790,26 +5774,27 @@
         <v>1</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N79" s="9"/>
-      <c r="O79" s="1">
-        <v>280800</v>
-      </c>
-      <c r="P79" s="1">
-        <v>140400</v>
+      <c r="O79">
+        <v>2340</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="1"/>
+        <v>1170</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5822,9 +5807,6 @@
       <c r="C80">
         <v>4</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
       <c r="E80">
         <v>0</v>
       </c>
@@ -5835,10 +5817,10 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I80">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J80">
         <v>4</v>
@@ -5847,29 +5829,30 @@
         <v>1</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N80" s="9"/>
-      <c r="O80" s="1">
-        <v>244800</v>
-      </c>
-      <c r="P80" s="1">
-        <v>122400</v>
+      <c r="O80">
+        <v>2040</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="1"/>
+        <v>1020</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>77</v>
       </c>
@@ -5892,10 +5875,10 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I81">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J81">
         <v>4</v>
@@ -5904,29 +5887,30 @@
         <v>1</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N81" s="9"/>
-      <c r="O81" s="1">
-        <v>216000</v>
-      </c>
-      <c r="P81" s="1">
-        <v>108000</v>
+      <c r="O81">
+        <v>1800</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>78</v>
       </c>
@@ -5946,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I82">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J82">
         <v>4</v>
@@ -5958,37 +5942,38 @@
         <v>1</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N82" s="9"/>
-      <c r="O82" s="1">
-        <v>187200</v>
-      </c>
-      <c r="P82" s="1">
-        <v>93600</v>
+      <c r="O82">
+        <v>1560</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="1"/>
+        <v>780</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B83">
-        <v>5004</v>
+        <v>3007</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -6003,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I83">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J83">
         <v>4</v>
@@ -6015,37 +6000,38 @@
         <v>1</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N83" s="9"/>
-      <c r="O83" s="1">
-        <v>72000</v>
-      </c>
-      <c r="P83" s="1">
-        <v>36000</v>
+      <c r="O83">
+        <v>1560</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="1"/>
+        <v>780</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B84">
-        <v>7005</v>
+        <v>4007</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -6054,16 +6040,16 @@
         <v>0</v>
       </c>
       <c r="F84" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I84">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J84">
         <v>4</v>
@@ -6072,31 +6058,35 @@
         <v>1</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N84" s="9"/>
-      <c r="O84" s="1">
-        <v>72000</v>
-      </c>
-      <c r="P84" s="1">
-        <v>36000</v>
+      <c r="O84">
+        <v>1380</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="1"/>
+        <v>690</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="B85">
+        <v>4008</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -6105,16 +6095,19 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F85" s="8">
+        <v>18</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="I85">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -6123,52 +6116,238 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N85" s="9"/>
+      <c r="O85">
+        <v>1200</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="1"/>
+        <v>600</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="B86">
+        <v>5004</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" s="8">
+        <v>20</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>6001</v>
+      </c>
+      <c r="I86">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N86" s="9"/>
+      <c r="O86">
+        <v>600</v>
+      </c>
+      <c r="P86">
+        <v>300</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87">
+        <v>4009</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8">
+        <v>17</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>6001</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+      <c r="J87">
+        <v>4</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N87" s="9"/>
+      <c r="O87">
+        <v>600</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>84</v>
+      </c>
+      <c r="B88">
+        <v>7005</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" s="8">
+        <v>15</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>6001</v>
+      </c>
+      <c r="I88">
+        <v>10</v>
+      </c>
+      <c r="J88">
+        <v>4</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N88" s="9"/>
+      <c r="O88">
+        <v>600</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>6001</v>
+      </c>
+      <c r="I89">
         <v>2</v>
       </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>6004</v>
-      </c>
-      <c r="I86">
-        <v>3000</v>
-      </c>
-      <c r="J86">
-        <v>4</v>
-      </c>
-      <c r="K86">
-        <v>2</v>
-      </c>
-      <c r="L86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" t="s">
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q89" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TDungeons.xlsx
+++ b/docs/excel/TDungeons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="210" windowWidth="26775" windowHeight="12120" tabRatio="204"/>
+    <workbookView xWindow="29310" yWindow="165" windowWidth="26430" windowHeight="12105" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TDungeons" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="77">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -147,14 +147,6 @@
     <t>推荐标记</t>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonlLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[]string</t>
   </si>
   <si>
@@ -453,58 +445,6 @@
       </rPr>
       <t>100</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0;2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>-300</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorelimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大奖全局限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大奖个人限制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -577,7 +517,191 @@
   </si>
   <si>
     <r>
+      <t>20-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;30-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;40-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;50-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;60-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;70-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;80-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;90-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4026-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Getnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt32</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中奖次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-70;3-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-70;5-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2-1;2-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -586,7 +710,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>是</t>
+      <t>钻石</t>
     </r>
     <r>
       <rPr>
@@ -594,7 +718,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>0</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -603,11 +727,166 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>否</t>
+      <t>免费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DiamondChip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;30-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;40-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;50-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;60-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;70-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;80-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;90-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1-</t>
     </r>
@@ -725,268 +1004,64 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>20-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;30-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;40-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;50-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;60-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;70-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;80-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;90-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0;2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>-300</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4026-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Getnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt32</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中奖次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-70;3-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-70;5-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0;2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>-300</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2-1;2-1-3</t>
+    <t>钻石碎片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-100</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000;2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-40000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorelimit</t>
+  </si>
+  <si>
+    <t>PersonlLimit</t>
+  </si>
+  <si>
+    <t>大奖全局限制</t>
+  </si>
+  <si>
+    <t>大奖个人限制</t>
   </si>
 </sst>
 </file>
@@ -1425,18 +1500,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T89"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomRight" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.796875" style="1" customWidth="1"/>
     <col min="3" max="6" width="21.69921875" customWidth="1"/>
     <col min="10" max="10" width="13.09765625" customWidth="1"/>
@@ -1444,12 +1519,11 @@
     <col min="12" max="12" width="61.8984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.3984375" customWidth="1"/>
-    <col min="15" max="15" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="59.69921875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.3984375" customWidth="1"/>
     <col min="19" max="19" width="20.5" customWidth="1"/>
-    <col min="20" max="20" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -1466,10 +1540,10 @@
         <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1487,30 +1561,32 @@
         <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1529,7 +1605,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -1547,7 +1623,7 @@
         <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>37</v>
@@ -1555,20 +1631,23 @@
       <c r="N2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1593,6 +1672,9 @@
       <c r="S3" t="s">
         <v>35</v>
       </c>
+      <c r="T3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1602,16 +1684,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
@@ -1629,30 +1711,32 @@
         <v>7</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="N4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1674,39 +1758,38 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I5">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N5" s="7"/>
-      <c r="O5">
-        <v>509280</v>
-      </c>
-      <c r="P5">
-        <f>O5/2</f>
-        <v>254640</v>
+      <c r="O5" s="1">
+        <v>61113600</v>
+      </c>
+      <c r="P5" s="1">
+        <v>30556800</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -1729,39 +1812,38 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J6">
         <v>6</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N6" s="7"/>
-      <c r="O6">
-        <v>209880</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ref="P6:P69" si="0">O6/2</f>
-        <v>104940</v>
+      <c r="O6" s="1">
+        <v>25185600</v>
+      </c>
+      <c r="P6" s="1">
+        <v>12592800</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -1784,39 +1866,38 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I7">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7">
-        <v>185940</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>92970</v>
+      <c r="O7" s="1">
+        <v>22312800</v>
+      </c>
+      <c r="P7" s="1">
+        <v>11156400</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -1839,39 +1920,38 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8">
-        <v>161940</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>80970</v>
+      <c r="O8" s="1">
+        <v>19432800</v>
+      </c>
+      <c r="P8" s="1">
+        <v>9716400</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -1894,39 +1974,38 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9">
-        <v>138000</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>69000</v>
+      <c r="O9" s="1">
+        <v>16560000</v>
+      </c>
+      <c r="P9" s="1">
+        <v>8280000</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -1949,39 +2028,38 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I10">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N10" s="7"/>
-      <c r="O10">
-        <v>119880</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>59940</v>
+      <c r="O10" s="1">
+        <v>14385600</v>
+      </c>
+      <c r="P10" s="1">
+        <v>7192800</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2004,39 +2082,38 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I11">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11">
-        <v>117600</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>58800</v>
+      <c r="O11" s="1">
+        <v>14112000</v>
+      </c>
+      <c r="P11" s="1">
+        <v>7056000</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2059,10 +2136,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I12">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -2071,27 +2148,26 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12">
-        <v>89940</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>44970</v>
+      <c r="O12" s="1">
+        <v>10792800</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5396400</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2114,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I13">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2126,27 +2202,26 @@
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13">
-        <v>83940</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>41970</v>
+      <c r="O13" s="1">
+        <v>10072800</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5036400</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2169,10 +2244,10 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I14">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2181,27 +2256,26 @@
         <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N14" s="7"/>
-      <c r="O14">
-        <v>83940</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>41970</v>
+      <c r="O14" s="1">
+        <v>10072800</v>
+      </c>
+      <c r="P14" s="1">
+        <v>5036400</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2224,10 +2298,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I15">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2236,27 +2310,26 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N15" s="7"/>
-      <c r="O15">
-        <v>77940</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>38970</v>
+      <c r="O15" s="1">
+        <v>9352800</v>
+      </c>
+      <c r="P15" s="1">
+        <v>4676400</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -2279,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I16">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2291,27 +2364,26 @@
         <v>1</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N16" s="7"/>
-      <c r="O16">
-        <v>71940</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>35970</v>
+      <c r="O16" s="1">
+        <v>8632800</v>
+      </c>
+      <c r="P16" s="1">
+        <v>4316400</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2334,10 +2406,10 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I17">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2346,27 +2418,26 @@
         <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N17" s="7"/>
-      <c r="O17">
-        <v>71940</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>35970</v>
+      <c r="O17" s="1">
+        <v>8632800</v>
+      </c>
+      <c r="P17" s="1">
+        <v>4316400</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2389,10 +2460,10 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I18">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2401,27 +2472,26 @@
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N18" s="7"/>
-      <c r="O18">
-        <v>60000</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+      <c r="O18" s="1">
+        <v>7200000</v>
+      </c>
+      <c r="P18" s="1">
+        <v>3600000</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2444,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I19">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -2456,27 +2526,26 @@
         <v>1</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N19" s="7"/>
-      <c r="O19">
-        <v>53880</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="0"/>
-        <v>26940</v>
+      <c r="O19" s="1">
+        <v>6465600</v>
+      </c>
+      <c r="P19" s="1">
+        <v>3232800</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2499,10 +2568,10 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I20">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -2511,27 +2580,26 @@
         <v>1</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20">
-        <v>46080</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>23040</v>
+      <c r="O20" s="1">
+        <v>5529600</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2764800</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2554,10 +2622,10 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I21">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -2566,27 +2634,26 @@
         <v>1</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N21" s="7"/>
-      <c r="O21">
-        <v>39480</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="0"/>
-        <v>19740</v>
+      <c r="O21" s="1">
+        <v>4737600</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2368800</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2609,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I22">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -2621,27 +2688,26 @@
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N22" s="7"/>
-      <c r="O22">
-        <v>31740</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="0"/>
-        <v>15870</v>
+      <c r="O22" s="1">
+        <v>3808800</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1904400</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2664,10 +2730,10 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I23">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -2676,27 +2742,26 @@
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N23" s="7"/>
-      <c r="O23">
-        <v>30000</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="0"/>
-        <v>15000</v>
+      <c r="O23" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1800000</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2719,10 +2784,10 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J24">
         <v>5</v>
@@ -2731,27 +2796,26 @@
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N24" s="7"/>
-      <c r="O24">
-        <v>23160</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="0"/>
-        <v>11580</v>
+      <c r="O24" s="1">
+        <v>2779200</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1389600</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2774,10 +2838,10 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I25">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J25">
         <v>5</v>
@@ -2786,27 +2850,26 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N25" s="7"/>
-      <c r="O25">
-        <v>21000</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="0"/>
-        <v>10500</v>
+      <c r="O25" s="1">
+        <v>2520000</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1260000</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2829,10 +2892,10 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I26">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2841,27 +2904,26 @@
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N26" s="7"/>
-      <c r="O26">
-        <v>20940</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="0"/>
-        <v>10470</v>
+      <c r="O26" s="1">
+        <v>2512800</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1256400</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2884,10 +2946,10 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I27">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -2896,27 +2958,26 @@
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27">
-        <v>20880</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="0"/>
-        <v>10440</v>
+      <c r="O27" s="1">
+        <v>2505600</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1252800</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2939,10 +3000,10 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I28">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2951,27 +3012,26 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N28" s="7"/>
-      <c r="O28">
-        <v>18900</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="0"/>
-        <v>9450</v>
+      <c r="O28" s="1">
+        <v>2268000</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1134000</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -2994,10 +3054,10 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -3006,27 +3066,26 @@
         <v>1</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N29" s="7"/>
-      <c r="O29">
-        <v>18540</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="0"/>
-        <v>9270</v>
+      <c r="O29" s="1">
+        <v>2224800</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1112400</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3049,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I30">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J30">
         <v>5</v>
@@ -3061,27 +3120,26 @@
         <v>1</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N30" s="7"/>
-      <c r="O30">
-        <v>18000</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="0"/>
-        <v>9000</v>
+      <c r="O30" s="1">
+        <v>2160000</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1080000</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3104,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I31">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J31">
         <v>5</v>
@@ -3116,27 +3174,26 @@
         <v>1</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31">
-        <v>17940</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="0"/>
-        <v>8970</v>
+      <c r="O31" s="1">
+        <v>2152800</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1076400</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3159,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I32">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3171,27 +3228,26 @@
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32">
-        <v>17880</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="0"/>
-        <v>8940</v>
+      <c r="O32" s="1">
+        <v>2145600</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1072800</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3214,10 +3270,10 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J33">
         <v>5</v>
@@ -3226,27 +3282,26 @@
         <v>1</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N33" s="7"/>
-      <c r="O33">
-        <v>17880</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="0"/>
-        <v>8940</v>
+      <c r="O33" s="1">
+        <v>2145600</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1072800</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3269,10 +3324,10 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I34">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3281,27 +3336,26 @@
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="O34">
-        <v>17340</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="0"/>
-        <v>8670</v>
+      <c r="O34" s="1">
+        <v>2080800</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1040400</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3324,10 +3378,10 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J35">
         <v>5</v>
@@ -3336,27 +3390,26 @@
         <v>1</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N35" s="7"/>
-      <c r="O35">
-        <v>16980</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="0"/>
-        <v>8490</v>
+      <c r="O35" s="1">
+        <v>2037600</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1018800</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3379,10 +3432,10 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I36">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -3391,27 +3444,26 @@
         <v>1</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N36" s="7"/>
-      <c r="O36">
-        <v>14880</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="0"/>
-        <v>7440</v>
+      <c r="O36" s="1">
+        <v>1785600</v>
+      </c>
+      <c r="P36" s="1">
+        <v>892800</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3434,10 +3486,10 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I37">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -3446,27 +3498,26 @@
         <v>1</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N37" s="7"/>
-      <c r="O37">
-        <v>12000</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="0"/>
-        <v>6000</v>
+      <c r="O37" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="P37" s="1">
+        <v>720000</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3489,10 +3540,10 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I38">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J38">
         <v>4</v>
@@ -3501,27 +3552,26 @@
         <v>1</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N38" s="7"/>
-      <c r="O38">
-        <v>11940</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="0"/>
-        <v>5970</v>
+      <c r="O38" s="1">
+        <v>1432800</v>
+      </c>
+      <c r="P38" s="1">
+        <v>716400</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3544,10 +3594,10 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I39">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J39">
         <v>4</v>
@@ -3556,27 +3606,26 @@
         <v>1</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N39" s="7"/>
-      <c r="O39">
-        <v>11940</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="0"/>
-        <v>5970</v>
+      <c r="O39" s="1">
+        <v>1432800</v>
+      </c>
+      <c r="P39" s="1">
+        <v>716400</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3599,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I40">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -3611,27 +3660,26 @@
         <v>1</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N40" s="7"/>
-      <c r="O40">
-        <v>11940</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="0"/>
-        <v>5970</v>
+      <c r="O40" s="1">
+        <v>1432800</v>
+      </c>
+      <c r="P40" s="1">
+        <v>716400</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3654,10 +3702,10 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I41">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -3666,27 +3714,26 @@
         <v>1</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N41" s="7"/>
-      <c r="O41">
-        <v>11940</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="0"/>
-        <v>5970</v>
+      <c r="O41" s="1">
+        <v>1432800</v>
+      </c>
+      <c r="P41" s="1">
+        <v>716400</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3709,10 +3756,10 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I42">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J42">
         <v>4</v>
@@ -3721,27 +3768,26 @@
         <v>1</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N42" s="7"/>
-      <c r="O42">
-        <v>11880</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="0"/>
-        <v>5940</v>
+      <c r="O42" s="1">
+        <v>1425600</v>
+      </c>
+      <c r="P42" s="1">
+        <v>712800</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3764,10 +3810,10 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I43">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J43">
         <v>4</v>
@@ -3776,27 +3822,26 @@
         <v>1</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N43" s="7"/>
-      <c r="O43">
-        <v>11340</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="0"/>
-        <v>5670</v>
+      <c r="O43" s="1">
+        <v>1360800</v>
+      </c>
+      <c r="P43" s="1">
+        <v>680400</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3819,10 +3864,10 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I44">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J44">
         <v>4</v>
@@ -3831,27 +3876,26 @@
         <v>1</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N44" s="7"/>
-      <c r="O44">
-        <v>11340</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="0"/>
-        <v>5670</v>
+      <c r="O44" s="1">
+        <v>1360800</v>
+      </c>
+      <c r="P44" s="1">
+        <v>680400</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3874,10 +3918,10 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I45">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J45">
         <v>4</v>
@@ -3886,27 +3930,26 @@
         <v>1</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N45" s="7"/>
-      <c r="O45">
-        <v>10740</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="0"/>
-        <v>5370</v>
+      <c r="O45" s="1">
+        <v>1288800</v>
+      </c>
+      <c r="P45" s="1">
+        <v>644400</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3929,10 +3972,10 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I46">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -3941,27 +3984,26 @@
         <v>1</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N46" s="7"/>
-      <c r="O46">
-        <v>10680</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="0"/>
-        <v>5340</v>
+      <c r="O46" s="1">
+        <v>1281600</v>
+      </c>
+      <c r="P46" s="1">
+        <v>640800</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -3984,10 +4026,10 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I47">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J47">
         <v>4</v>
@@ -3996,27 +4038,26 @@
         <v>1</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N47" s="7"/>
-      <c r="O47">
-        <v>10680</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="0"/>
-        <v>5340</v>
+      <c r="O47" s="1">
+        <v>1281600</v>
+      </c>
+      <c r="P47" s="1">
+        <v>640800</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4039,10 +4080,10 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I48">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -4051,27 +4092,26 @@
         <v>1</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N48" s="7"/>
-      <c r="O48">
-        <v>9480</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="0"/>
-        <v>4740</v>
+      <c r="O48" s="1">
+        <v>1137600</v>
+      </c>
+      <c r="P48" s="1">
+        <v>568800</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4097,10 +4137,10 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I49">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -4109,27 +4149,26 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N49" s="7"/>
-      <c r="O49">
-        <v>8940</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="0"/>
-        <v>4470</v>
+      <c r="O49" s="1">
+        <v>1072800</v>
+      </c>
+      <c r="P49" s="1">
+        <v>536400</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4152,10 +4191,10 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I50">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J50">
         <v>4</v>
@@ -4164,27 +4203,26 @@
         <v>1</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N50" s="7"/>
-      <c r="O50">
-        <v>8340</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="0"/>
-        <v>4170</v>
+      <c r="O50" s="1">
+        <v>1000800</v>
+      </c>
+      <c r="P50" s="1">
+        <v>500400</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4207,10 +4245,10 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I51">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J51">
         <v>4</v>
@@ -4219,27 +4257,26 @@
         <v>1</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N51" s="7"/>
-      <c r="O51">
-        <v>7740</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="0"/>
-        <v>3870</v>
+      <c r="O51" s="1">
+        <v>928800</v>
+      </c>
+      <c r="P51" s="1">
+        <v>464400</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4262,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I52">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J52">
         <v>4</v>
@@ -4274,27 +4311,26 @@
         <v>1</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N52" s="7"/>
-      <c r="O52">
-        <v>7740</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="0"/>
-        <v>3870</v>
+      <c r="O52" s="1">
+        <v>928800</v>
+      </c>
+      <c r="P52" s="1">
+        <v>464400</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4317,10 +4353,10 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I53">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J53">
         <v>4</v>
@@ -4329,27 +4365,26 @@
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N53" s="7"/>
-      <c r="O53">
-        <v>7740</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="0"/>
-        <v>3870</v>
+      <c r="O53" s="1">
+        <v>928800</v>
+      </c>
+      <c r="P53" s="1">
+        <v>464400</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4372,10 +4407,10 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I54">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J54">
         <v>4</v>
@@ -4384,27 +4419,26 @@
         <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N54" s="7"/>
-      <c r="O54">
-        <v>7740</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="0"/>
-        <v>3870</v>
+      <c r="O54" s="1">
+        <v>928800</v>
+      </c>
+      <c r="P54" s="1">
+        <v>464400</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4430,10 +4464,10 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I55">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J55">
         <v>4</v>
@@ -4442,27 +4476,26 @@
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N55" s="7"/>
-      <c r="O55">
-        <v>7140</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="0"/>
-        <v>3570</v>
+      <c r="O55" s="1">
+        <v>856800</v>
+      </c>
+      <c r="P55" s="1">
+        <v>428400</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4485,10 +4518,10 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I56">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J56">
         <v>4</v>
@@ -4497,27 +4530,26 @@
         <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N56" s="7"/>
-      <c r="O56">
-        <v>6000</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="0"/>
-        <v>3000</v>
+      <c r="O56" s="1">
+        <v>720000</v>
+      </c>
+      <c r="P56" s="1">
+        <v>360000</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4540,10 +4572,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I57">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="J57">
         <v>4</v>
@@ -4552,27 +4584,26 @@
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N57" s="7"/>
-      <c r="O57">
-        <v>6000</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="0"/>
-        <v>3000</v>
+      <c r="O57" s="1">
+        <v>720000</v>
+      </c>
+      <c r="P57" s="1">
+        <v>360000</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4595,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J58">
         <v>4</v>
@@ -4607,27 +4638,26 @@
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N58" s="7"/>
-      <c r="O58">
-        <v>5940</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="0"/>
-        <v>2970</v>
+      <c r="O58" s="1">
+        <v>712800</v>
+      </c>
+      <c r="P58" s="1">
+        <v>356400</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4650,10 +4680,10 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I59">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -4662,27 +4692,26 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N59" s="7"/>
-      <c r="O59">
-        <v>5940</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="0"/>
-        <v>2970</v>
+      <c r="O59" s="1">
+        <v>712800</v>
+      </c>
+      <c r="P59" s="1">
+        <v>356400</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4705,10 +4734,10 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J60">
         <v>4</v>
@@ -4717,27 +4746,26 @@
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N60" s="7"/>
-      <c r="O60">
-        <v>5340</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="0"/>
-        <v>2670</v>
+      <c r="O60" s="1">
+        <v>640800</v>
+      </c>
+      <c r="P60" s="1">
+        <v>320400</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4760,10 +4788,10 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I61">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J61">
         <v>4</v>
@@ -4772,27 +4800,26 @@
         <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N61" s="7"/>
-      <c r="O61">
-        <v>5280</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="0"/>
-        <v>2640</v>
+      <c r="O61" s="1">
+        <v>633600</v>
+      </c>
+      <c r="P61" s="1">
+        <v>316800</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4815,10 +4842,10 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I62">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J62">
         <v>4</v>
@@ -4827,27 +4854,26 @@
         <v>1</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N62" s="7"/>
-      <c r="O62">
-        <v>4800</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="0"/>
-        <v>2400</v>
+      <c r="O62" s="1">
+        <v>576000</v>
+      </c>
+      <c r="P62" s="1">
+        <v>288000</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4870,10 +4896,10 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I63">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J63">
         <v>4</v>
@@ -4882,27 +4908,26 @@
         <v>1</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N63" s="7"/>
-      <c r="O63">
-        <v>4740</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="0"/>
-        <v>2370</v>
+      <c r="O63" s="1">
+        <v>568800</v>
+      </c>
+      <c r="P63" s="1">
+        <v>284400</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4925,10 +4950,10 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I64">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -4937,27 +4962,26 @@
         <v>1</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N64" s="7"/>
-      <c r="O64">
-        <v>4740</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="0"/>
-        <v>2370</v>
+      <c r="O64" s="1">
+        <v>568800</v>
+      </c>
+      <c r="P64" s="1">
+        <v>284400</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -4980,10 +5004,10 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I65">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J65">
         <v>4</v>
@@ -4992,27 +5016,26 @@
         <v>1</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N65" s="7"/>
-      <c r="O65">
-        <v>4680</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="0"/>
-        <v>2340</v>
+      <c r="O65" s="1">
+        <v>561600</v>
+      </c>
+      <c r="P65" s="1">
+        <v>280800</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5035,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I66">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -5047,27 +5070,26 @@
         <v>1</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N66" s="7"/>
-      <c r="O66">
-        <v>4680</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="0"/>
-        <v>2340</v>
+      <c r="O66" s="1">
+        <v>561600</v>
+      </c>
+      <c r="P66" s="1">
+        <v>280800</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5093,10 +5115,10 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I67">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -5105,27 +5127,26 @@
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N67" s="7"/>
-      <c r="O67">
-        <v>4080</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="0"/>
-        <v>2040</v>
+      <c r="O67" s="1">
+        <v>489600</v>
+      </c>
+      <c r="P67" s="1">
+        <v>244800</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5148,10 +5169,10 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I68">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J68">
         <v>4</v>
@@ -5160,27 +5181,26 @@
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N68" s="9"/>
-      <c r="O68">
-        <v>4080</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="0"/>
-        <v>2040</v>
+      <c r="O68" s="1">
+        <v>489600</v>
+      </c>
+      <c r="P68" s="1">
+        <v>244800</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5203,10 +5223,10 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I69">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -5215,27 +5235,26 @@
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N69" s="9"/>
-      <c r="O69">
-        <v>3540</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="0"/>
-        <v>1770</v>
+      <c r="O69" s="1">
+        <v>424800</v>
+      </c>
+      <c r="P69" s="1">
+        <v>212400</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5258,10 +5277,10 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I70">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J70">
         <v>4</v>
@@ -5270,27 +5289,26 @@
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N70" s="9"/>
-      <c r="O70">
-        <v>3540</v>
-      </c>
-      <c r="P70">
-        <f t="shared" ref="P70:P88" si="1">O70/2</f>
-        <v>1770</v>
+      <c r="O70" s="1">
+        <v>424800</v>
+      </c>
+      <c r="P70" s="1">
+        <v>212400</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5316,10 +5334,10 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I71">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J71">
         <v>4</v>
@@ -5328,27 +5346,26 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N71" s="9"/>
-      <c r="O71">
-        <v>3540</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="1"/>
-        <v>1770</v>
+      <c r="O71" s="1">
+        <v>424800</v>
+      </c>
+      <c r="P71" s="1">
+        <v>212400</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5374,10 +5391,10 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J72">
         <v>4</v>
@@ -5386,27 +5403,26 @@
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N72" s="9"/>
-      <c r="O72">
-        <v>3480</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="1"/>
-        <v>1740</v>
+      <c r="O72" s="1">
+        <v>417600</v>
+      </c>
+      <c r="P72" s="1">
+        <v>208800</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5429,10 +5445,10 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I73">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -5441,27 +5457,26 @@
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N73" s="9"/>
-      <c r="O73">
-        <v>3000</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+      <c r="O73" s="1">
+        <v>360000</v>
+      </c>
+      <c r="P73" s="1">
+        <v>180000</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5487,10 +5502,10 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I74">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J74">
         <v>4</v>
@@ -5499,27 +5514,26 @@
         <v>1</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N74" s="9"/>
-      <c r="O74">
-        <v>3000</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+      <c r="O74" s="1">
+        <v>360000</v>
+      </c>
+      <c r="P74" s="1">
+        <v>180000</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5542,10 +5556,10 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I75">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -5554,27 +5568,26 @@
         <v>1</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N75" s="9"/>
-      <c r="O75">
-        <v>2940</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="1"/>
-        <v>1470</v>
+      <c r="O75" s="1">
+        <v>352800</v>
+      </c>
+      <c r="P75" s="1">
+        <v>176400</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5587,6 +5600,9 @@
       <c r="C76">
         <v>4</v>
       </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
       <c r="E76">
         <v>0</v>
       </c>
@@ -5597,10 +5613,10 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I76">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J76">
         <v>4</v>
@@ -5609,27 +5625,26 @@
         <v>1</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N76" s="9"/>
-      <c r="O76">
-        <v>2400</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="1"/>
-        <v>1200</v>
+      <c r="O76" s="1">
+        <v>288000</v>
+      </c>
+      <c r="P76" s="1">
+        <v>144000</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5652,10 +5667,10 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J77">
         <v>4</v>
@@ -5664,27 +5679,26 @@
         <v>1</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N77" s="9"/>
-      <c r="O77">
-        <v>2340</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="1"/>
-        <v>1170</v>
+      <c r="O77" s="1">
+        <v>280800</v>
+      </c>
+      <c r="P77" s="1">
+        <v>140400</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5707,10 +5721,10 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I78">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J78">
         <v>4</v>
@@ -5719,27 +5733,26 @@
         <v>1</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N78" s="9"/>
-      <c r="O78">
-        <v>2340</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="1"/>
-        <v>1170</v>
+      <c r="O78" s="1">
+        <v>280800</v>
+      </c>
+      <c r="P78" s="1">
+        <v>140400</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5752,6 +5765,9 @@
       <c r="C79">
         <v>3</v>
       </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
       <c r="E79">
         <v>0</v>
       </c>
@@ -5762,10 +5778,10 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I79">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J79">
         <v>4</v>
@@ -5774,27 +5790,26 @@
         <v>1</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N79" s="9"/>
-      <c r="O79">
-        <v>2340</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="1"/>
-        <v>1170</v>
+      <c r="O79" s="1">
+        <v>280800</v>
+      </c>
+      <c r="P79" s="1">
+        <v>140400</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
@@ -5807,6 +5822,9 @@
       <c r="C80">
         <v>4</v>
       </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
       <c r="E80">
         <v>0</v>
       </c>
@@ -5817,10 +5835,10 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I80">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J80">
         <v>4</v>
@@ -5829,30 +5847,29 @@
         <v>1</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N80" s="9"/>
-      <c r="O80">
-        <v>2040</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="1"/>
-        <v>1020</v>
+      <c r="O80" s="1">
+        <v>244800</v>
+      </c>
+      <c r="P80" s="1">
+        <v>122400</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>77</v>
       </c>
@@ -5875,10 +5892,10 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J81">
         <v>4</v>
@@ -5887,30 +5904,29 @@
         <v>1</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N81" s="9"/>
-      <c r="O81">
-        <v>1800</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="1"/>
-        <v>900</v>
+      <c r="O81" s="1">
+        <v>216000</v>
+      </c>
+      <c r="P81" s="1">
+        <v>108000</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>78</v>
       </c>
@@ -5930,10 +5946,10 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I82">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J82">
         <v>4</v>
@@ -5942,38 +5958,37 @@
         <v>1</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N82" s="9"/>
-      <c r="O82">
-        <v>1560</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="1"/>
-        <v>780</v>
+      <c r="O82" s="1">
+        <v>187200</v>
+      </c>
+      <c r="P82" s="1">
+        <v>93600</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>3007</v>
+        <v>5004</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -5988,10 +6003,10 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I83">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J83">
         <v>4</v>
@@ -6000,354 +6015,160 @@
         <v>1</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M83" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N83" s="9"/>
+      <c r="O83" s="1">
+        <v>72000</v>
+      </c>
+      <c r="P83" s="1">
+        <v>36000</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>7005</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8">
+        <v>15</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>6004</v>
+      </c>
+      <c r="I84">
+        <v>1000</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N84" s="9"/>
+      <c r="O84" s="1">
+        <v>72000</v>
+      </c>
+      <c r="P84" s="1">
+        <v>36000</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>6004</v>
+      </c>
+      <c r="I85">
+        <v>200</v>
+      </c>
+      <c r="J85">
+        <v>4</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N83" s="9"/>
-      <c r="O83">
-        <v>1560</v>
-      </c>
-      <c r="P83">
-        <f t="shared" si="1"/>
-        <v>780</v>
-      </c>
-      <c r="Q83" s="2" t="s">
+      <c r="Q85" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R85" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>80</v>
-      </c>
-      <c r="B84">
-        <v>4007</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" s="8">
-        <v>16</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>6001</v>
-      </c>
-      <c r="I84">
-        <v>10</v>
-      </c>
-      <c r="J84">
-        <v>4</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M84" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N84" s="9"/>
-      <c r="O84">
-        <v>1380</v>
-      </c>
-      <c r="P84">
-        <f t="shared" si="1"/>
-        <v>690</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S84" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>81</v>
-      </c>
-      <c r="B85">
-        <v>4008</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" s="8">
-        <v>18</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>6001</v>
-      </c>
-      <c r="I85">
-        <v>10</v>
-      </c>
-      <c r="J85">
-        <v>4</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M85" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N85" s="9"/>
-      <c r="O85">
-        <v>1200</v>
-      </c>
-      <c r="P85">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>82</v>
-      </c>
-      <c r="B86">
-        <v>5004</v>
+        <v>86</v>
       </c>
       <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
         <v>2</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" s="8">
-        <v>20</v>
-      </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="I86">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="J86">
         <v>4</v>
       </c>
       <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M86" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N86" s="9"/>
-      <c r="O86">
-        <v>600</v>
-      </c>
-      <c r="P86">
-        <v>300</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>83</v>
-      </c>
-      <c r="B87">
-        <v>4009</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" s="8">
-        <v>17</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>6001</v>
-      </c>
-      <c r="I87">
-        <v>10</v>
-      </c>
-      <c r="J87">
-        <v>4</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M87" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N87" s="9"/>
-      <c r="O87">
-        <v>600</v>
-      </c>
-      <c r="P87">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R87" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S87" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>84</v>
-      </c>
-      <c r="B88">
-        <v>7005</v>
-      </c>
-      <c r="C88">
-        <v>5</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" s="8">
-        <v>15</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>6001</v>
-      </c>
-      <c r="I88">
-        <v>10</v>
-      </c>
-      <c r="J88">
-        <v>4</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M88" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N88" s="9"/>
-      <c r="O88">
-        <v>600</v>
-      </c>
-      <c r="P88">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="Q88" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R88" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>85</v>
-      </c>
-      <c r="C89">
-        <v>4</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>6001</v>
-      </c>
-      <c r="I89">
         <v>2</v>
       </c>
-      <c r="J89">
-        <v>4</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q89" s="2" t="s">
+      <c r="L86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" t="s">
         <v>71</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
